--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value730.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value730.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165203043297495</v>
+        <v>0.9509888291358948</v>
       </c>
       <c r="B1">
-        <v>1.781307901069787</v>
+        <v>1.342366695404053</v>
       </c>
       <c r="C1">
+        <v>2.244058609008789</v>
+      </c>
+      <c r="D1">
         <v>-1</v>
       </c>
-      <c r="D1">
-        <v>1.834232719343177</v>
-      </c>
       <c r="E1">
-        <v>1.060953925218852</v>
+        <v>1.748462319374084</v>
       </c>
     </row>
   </sheetData>
